--- a/app/data/foerder_dashboard.xlsx
+++ b/app/data/foerder_dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawbwev.sharepoint.com/sites/ServicestelleFuT/Freigegebene Dokumente/01_strategische_Unterstützung/08_Forschungswiki/Fördermittelakquise/Dashboard Förderberatung/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="8_{746DFD15-97C9-4026-8EE5-DBCE67AE5633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582B4FE0-874C-40DE-B27B-232CFE2D30D5}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{746DFD15-97C9-4026-8EE5-DBCE67AE5633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF5F299-E585-4D34-80EE-71684F929019}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{6DF1EC77-23AF-4381-B2C7-C4EB1C183597}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{6DF1EC77-23AF-4381-B2C7-C4EB1C183597}"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="299">
   <si>
     <t>R_ID</t>
   </si>
@@ -59,16 +59,10 @@
     <t>T_ID</t>
   </si>
   <si>
-    <t>Werkzeugtyp</t>
-  </si>
-  <si>
     <t>Informationsart</t>
   </si>
   <si>
     <t>Zweck</t>
-  </si>
-  <si>
-    <t>Werkzeugtyp_Beispiele</t>
   </si>
   <si>
     <t>Path_ID</t>
@@ -1262,58 +1256,6 @@
 PostDocs, Neuberufene</t>
   </si>
   <si>
-    <t>- Werkzeuge: ELFI-Suchprofile, CORDIS-Alerts, Newsletter von NKS/Ministerien, Deadline-Kalender
-- erschließt: aktuelle nationale und EU-Ausschreibungen, neue Calls und Fristen → identifiziert kurzfristige Einreichchancen</t>
-  </si>
-  <si>
-    <t>- Werkzeuge: RSS-Feeds von Förderern, automatisierte E-Mail-Alerts, Monitoring-Dashboard
-- erschließt: Vorankündigungen, Programmänderungen und Fördertrends → ermöglicht frühzeitige Vorbereitung von Projektskizzen</t>
-  </si>
-  <si>
-    <t>- Werkzeuge: Call–Kompetenz-Matrix, Persona-Steckbriefe, TRL-Mapping, Scoring-Tabelle (Fit–Effort–Win)
-- erschließt: passgenaue Zuordnung von Förderlinien zu Instituten/Teams → priorisiert realistische und strategisch sinnvolle Antragstellungen</t>
-  </si>
-  <si>
-    <t>- Werkzeuge: Gap-Analyse, Publikations-/Patentprofile, Partnerlandkarte
-- erschließt: Identifikation fehlender Kompetenzen oder Partnerschaften → zeigt, welche Programme nur mit Ergänzungen oder Konsortien erreichbar sind</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: standardisierte Fördersteckbriefe, internes Wiki, strukturierte Call-Zusammenfassungen
-- erschließt: komplexe Programmanforderungen in verständlicher Form → ermöglicht schnellen Zugang und fundierte Go/No-Go-Entscheidungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: regelmäßiges Funding-Radar, visuelle Deadlines-Übersicht, FAQ-Sammlungen
-- erschließt: transparente Übersicht über relevante Förderoptionen → senkt Informationsbarrieren für Forschende und erhöht Beteiligung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: Förderportfolio-Dashboard, Priorisierungsmatrix, Roadmaps, Strategie-Workshops
-- erschließt: gezielte Ausrichtung von Fakultäten auf strategisch relevante Programme (z.B. Verbundprojekte, Schwerpunktprogramme) → bündelt Ressourcen auf chancenreiche Linien</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: Stakeholder-Mapping, Positionspapiere, Projektentwicklungsformate
-- erschließt: langfristige Positionierung der Hochschule in bestimmten Themenfeldern → erleichtert Zugang zu großen oder wiederkehrenden Förderformaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: Partnerdatenbanken, bestehende Netzwerklisten, Konsortial-Canvas, Rollen- und Arbeitspaket-Matrix
-- erschließt: Aufbau passfähiger nationaler oder europäischer Konsortien → ermöglicht Teilnahme an Verbund- und Großprojekten (BMFTR, Horizon Europe etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: LoI-/MoU-Vorlagen, IP-Checklisten, Governance-Strukturpläne
-- erschließt: verbindliche Zusammenarbeit und klare Zuständigkeiten → erhöht Erfolgschancen bei wettbewerbsintensiven Programmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: Compliance-Checklisten (Ethik, Datenschutz, Budget), Einreichungsleitfäden
-- erschließt: formale Förderfähigkeit und Regelkonformität → verhindert Ausschluss aus administrativen Gründen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: Redaktionsplan, internes Reviewverfahren, Readability-Checks, Budgetkalkulationstools
-- erschließt: konsistente, reviewer-orientierte Anträge → verbessert Bewertung und Bewilligungswahrscheinlichkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Werkzeuge: Analyse von Strategiepapieren (EU/BMFTR), Policy-Briefings, Trendberichte, KI-gestützte Themencluster
-- erschließt: zukünftige Förderschwerpunkte und politische Prioritäten → erlaubt frühzeitige Themen- und Projektentwicklung vor offiziellen Calls</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Werkzeuge: Austauschformate mit NKS, KoWi, Fachnetzwerken, Community of Practice, Trendradar
 - erschließt: informelle Informationen, Insiderwissen und kommende Programmfenster → schafft zeitlichen Vorsprung gegenüber Wettbewerbern</t>
   </si>
@@ -1342,6 +1284,74 @@
   </si>
   <si>
     <t>Interne Wiki-Seiten und Handreichungen, [Forschungsdaten.info](https://forschungsdaten.info/) Forschungswiki, [FORTH-BW-Wiki](https://forth-bw.hfwu.de/index.php?title=Hauptseite): Plattform für Forschungsdatenmanagement an HAW in Baden-Württemberg. Sie bietet Informationen, Leitfäden und Tools zur Planung, Organisation und Dokumentation des Forschungsdaten-Lebenszyklus. Das Wiki unterstützt bei Antragstellung, Umsetzung und Nachnutzung von Forschungsdaten im Rahmen guter wissen-schaftlicher Praxis.</t>
+  </si>
+  <si>
+    <t>- Werkzeuge: Ausschreibungsdatenbanken &amp; Call-Monitoring (z.B. ELFI, Förderdatenbank, CORDIS, FIT)
+- erschließt: aktuelle nationale, europäische und regionale Förderaufrufe → identifiziert neue Calls und kritische Fristen für Forschende</t>
+  </si>
+  <si>
+    <t>- Werkzeuge: internationale Kooperations- und Partnerschaftsportale (z.B. Kooperation International, Stiftungssuche)
+- erschließt: internationale Programme, bilaterale Initiativen und Stiftungsförderungen → erweitert das Förderspektrum über klassische Bundes- und EU-Calls hinaus</t>
+  </si>
+  <si>
+    <t>- Werkzeuge: Ausschreibungsdatenbanken &amp; Call-Recherche
+- erschließt: detaillierte Förderbedingungen, Zielgruppen und Programmkriterien → gleicht Anforderungen systematisch mit Profilen von Teams und Instituten ab</t>
+  </si>
+  <si>
+    <t>- Werkzeuge: Projekt- und Erfolgsdatenbanken (z.B. CORDIS/CORDA, BMBF-Projektfinder, OpenAIRE, Dimensions)
+- erschließt: Informationen zu bereits geförderten Projekten, Partnern und Erfolgsquoten → bewertet realistische Erfolgschancen und typische Konsortialmuster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: Beratungs- und Netzwerkstrukturen (z.B. NKS, KoWi, Förderberatung des Bundes, DFG-Geschäftsstelle)
+- erschließt: informelles Erfahrungswissen und programmspezifische Einschätzungen → präzisiert Passung und vermeidet strategisch ungeeignete Antragstellungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: Ausschreibungsdatenbanken &amp; strukturierte Call-Informationen
+- erschließt: konsolidierte Programminformationen → verdichtet diese zu verständlichen Fördersteckbriefen und Entscheidungsgrundlagen für Forschende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: thematische Spezial- und Kontextquellen (z.B. Kooperation International, Stiftungssuche)
+- erschließt: zusätzliche Fördersegmente wie internationale Kooperationen oder Stiftungen → ergänzt die interne Wissensbasis um alternative Finanzierungswege</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: Analyse- und Erfolgsdatenbanken
+- erschließt: Daten zu Fördervolumen, Erfolgsquoten und thematischen Schwerpunkten → priorisiert strategisch lohnende Programme für Fakultäten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: Beratungs- und Netzwerkstrukturen
+- erschließt: direkte Rückmeldungen zu Programmlogiken, Bewertungsmaßstäben und politischen Entwicklungen → richtet Projektideen frühzeitig passend aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: strategische Studien, Policy-Reports und Think-Tank-Analysen (z.B. Wissenschaftsrat, EFI, OECD, HRK, Science Europe)
+- erschließt: langfristige wissenschafts- und innovationspolitische Trends → unterstützt die strategische Positionierung der Hochschule in zukünftigen Förderfeldern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: Beratungs- und Netzwerkstrukturen
+- erschließt: Kontakte zu potenziellen Partnern und Netzwerken → ermöglicht den Aufbau tragfähiger nationaler und internationaler Konsortien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: offizielle Ausschreibungs- und Richtliniendatenbanken
+- erschließt: verbindliche Förderrichtlinien, Nebenbestimmungen und formale Anforderungen → stellt Förderfähigkeit und regelkonforme Antragstellung sicher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge:interne Leitfäden, Checklisten und Wissensplattformen (z.B. Forschungsdaten-Wikis, Open-Science-Handreichungen)
+- erschließt: institutionelle Standards zu Forschungsdatenmanagement, Open Access und Compliance → integriert Qualitäts- und Dokumentationsanforderungen systematisch in Anträge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Werkzeuge: Projekt- und Outputanalysen
+- erschließt: thematische Häufungen laufender Projekte, neue Konsortialmuster und Emerging Topics → erkennt frühzeitig zukünftige Förderschwerpunkte</t>
+  </si>
+  <si>
+    <t>E_15</t>
+  </si>
+  <si>
+    <t>Path_15</t>
+  </si>
+  <si>
+    <t>Werkzeugkategorie</t>
+  </si>
+  <si>
+    <t>Typische Werkzeuge</t>
   </si>
 </sst>
 </file>
@@ -1792,126 +1802,126 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1923,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372402E0-21FA-483D-9975-290A5ED23856}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,118 +1950,118 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2062,17 +2072,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8910BC-0D90-4617-9131-01E662CD2E59}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2081,18 +2091,18 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2100,13 +2110,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2114,13 +2124,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2128,13 +2138,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2142,13 +2152,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2156,13 +2166,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2170,13 +2180,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -2184,13 +2194,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2198,13 +2208,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -2212,13 +2222,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2226,13 +2236,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2240,13 +2250,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2254,13 +2264,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -2268,16 +2278,30 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
       </c>
       <c r="D15">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2288,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21379402-47B7-4BBF-93EE-D05FD9904094}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,212 +2325,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>291</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2533,219 +2571,219 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2773,48 +2811,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -2835,21 +2873,21 @@
         <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -2870,21 +2908,21 @@
         <v>48</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>6.2</v>
@@ -2905,21 +2943,21 @@
         <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -2940,21 +2978,21 @@
         <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>3.5</v>
@@ -2975,21 +3013,21 @@
         <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>4.7</v>
@@ -3008,21 +3046,21 @@
         <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3041,21 +3079,21 @@
         <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>3.2</v>
@@ -3074,21 +3112,21 @@
         <v>12</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" s="4">
         <v>7.5</v>
@@ -3109,21 +3147,21 @@
         <v>18</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" s="4">
         <v>6.5</v>
@@ -3144,21 +3182,21 @@
         <v>12</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>7.5</v>
@@ -3179,21 +3217,21 @@
         <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D13" s="4">
         <v>4.5</v>
@@ -3214,21 +3252,21 @@
         <v>36</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
@@ -3249,21 +3287,21 @@
         <v>36</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D15" s="8">
         <v>4</v>
@@ -3284,21 +3322,21 @@
         <v>36</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -3319,21 +3357,21 @@
         <v>36</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -3354,21 +3392,21 @@
         <v>96</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>3.5</v>
@@ -3387,21 +3425,21 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -3422,21 +3460,21 @@
         <v>108</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20" s="4">
         <v>5.5</v>
@@ -3457,21 +3495,21 @@
         <v>36</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -3492,21 +3530,21 @@
         <v>36</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -3525,21 +3563,21 @@
         <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D23" s="1">
         <v>3.2</v>
@@ -3558,10 +3596,10 @@
         <v>36</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3590,50 +3628,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3653,15 +3691,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA87B7E20FD9E34D824BB32F4B189D33" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="84f44da98069d2749abe72d18b6f82db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="133d8268-e1ad-48e9-8a78-75b270c8d202" xmlns:ns3="cdb2038a-9fdd-4dad-9a08-1c9561009caf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4de419d239f27abf8a66ce2e46530e0" ns2:_="" ns3:_="">
     <xsd:import namespace="133d8268-e1ad-48e9-8a78-75b270c8d202"/>
@@ -3896,6 +3925,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E600B409-3A21-4A06-8817-05EC0C763B35}">
   <ds:schemaRefs>
@@ -3908,14 +3946,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E78614E-A874-468A-AFA7-F8E158BE7F52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE1279E-55F4-45FC-A199-58AA3DA6B1C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3932,4 +3962,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E78614E-A874-468A-AFA7-F8E158BE7F52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>